--- a/src/temp/donations.xlsx
+++ b/src/temp/donations.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -481,11 +481,11 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Роман</t>
+          <t>Самофалов Роман Эдуардович</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -497,7 +497,7 @@
         <v>1</v>
       </c>
       <c r="E2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F2" t="b">
         <v>1</v>
@@ -506,25 +506,25 @@
         <v>1</v>
       </c>
       <c r="H2" s="2" t="n">
-        <v>45606</v>
+        <v>45612</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>User2</t>
+          <t>Гейносреев Никита Сергеевич</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>12312312</t>
+          <t>1773889850</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E3" t="b">
         <v>1</v>
@@ -536,16 +536,16 @@
         <v>2</v>
       </c>
       <c r="H3" s="2" t="n">
-        <v>45607</v>
+        <v>45615</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>qeqweqwe</t>
+          <t>цуйцуйуйу</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -566,67 +566,7 @@
         <v>2</v>
       </c>
       <c r="H4" s="2" t="n">
-        <v>45609</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>9</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>qeqwee</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>23123</t>
-        </is>
-      </c>
-      <c r="D5" t="n">
-        <v>1</v>
-      </c>
-      <c r="E5" t="b">
-        <v>1</v>
-      </c>
-      <c r="F5" t="b">
-        <v>0</v>
-      </c>
-      <c r="G5" t="n">
-        <v>2</v>
-      </c>
-      <c r="H5" s="2" t="n">
-        <v>45611</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>7</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>User1</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>6331030854</t>
-        </is>
-      </c>
-      <c r="D6" t="n">
-        <v>3</v>
-      </c>
-      <c r="E6" t="b">
-        <v>0</v>
-      </c>
-      <c r="F6" t="b">
-        <v>0</v>
-      </c>
-      <c r="G6" t="n">
-        <v>2</v>
-      </c>
-      <c r="H6" s="2" t="n">
-        <v>45607</v>
+        <v>45615</v>
       </c>
     </row>
   </sheetData>
